--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/39.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/39.xlsx
@@ -479,13 +479,13 @@
         <v>-6.155074837743746</v>
       </c>
       <c r="E2" t="n">
-        <v>-16.41349621348247</v>
+        <v>-16.71903958663719</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4378055412214312</v>
+        <v>-2.002351565131355</v>
       </c>
       <c r="G2" t="n">
-        <v>-6.667192578191386</v>
+        <v>-2.022108041880559</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-5.606748758015522</v>
       </c>
       <c r="E3" t="n">
-        <v>-17.03258626403305</v>
+        <v>-17.4610832708838</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2618795181223637</v>
+        <v>-2.130761330490877</v>
       </c>
       <c r="G3" t="n">
-        <v>-6.858709644189045</v>
+        <v>-2.590635983413498</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-5.094749563209964</v>
       </c>
       <c r="E4" t="n">
-        <v>-17.88121518698528</v>
+        <v>-18.41214177670477</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4077332599830373</v>
+        <v>-2.132873381457384</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.016106331262505</v>
+        <v>-2.58313624687965</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-4.693306229198372</v>
       </c>
       <c r="E5" t="n">
-        <v>-18.24932807002277</v>
+        <v>-18.88666389420067</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6693293504110555</v>
+        <v>-1.861249937945323</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.907120590185237</v>
+        <v>-2.573651573557835</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-4.386798902617713</v>
       </c>
       <c r="E6" t="n">
-        <v>-19.12283714892073</v>
+        <v>-19.77465421143843</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5991965469051606</v>
+        <v>-2.090461246886897</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.514401335586561</v>
+        <v>-2.244665412476261</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-4.181495381343868</v>
       </c>
       <c r="E7" t="n">
-        <v>-19.7235298666311</v>
+        <v>-20.4343963540874</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5083343542835462</v>
+        <v>-2.261542264180851</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.361370531645256</v>
+        <v>-2.341761088853192</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-4.062193741826342</v>
       </c>
       <c r="E8" t="n">
-        <v>-20.20103916732268</v>
+        <v>-21.10288981902815</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5938479733927556</v>
+        <v>-2.312656830974447</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.184192922788258</v>
+        <v>-2.16392346406916</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-4.015609651138011</v>
       </c>
       <c r="E9" t="n">
-        <v>-20.66626239375771</v>
+        <v>-21.71679752229979</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7885380048470426</v>
+        <v>-2.143775866770604</v>
       </c>
       <c r="G9" t="n">
-        <v>-6.229382013259153</v>
+        <v>-2.359063284155204</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-4.019447334631013</v>
       </c>
       <c r="E10" t="n">
-        <v>-21.33700969086411</v>
+        <v>-22.37176799424665</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9810719842730202</v>
+        <v>-2.194758430378793</v>
       </c>
       <c r="G10" t="n">
-        <v>-6.126145744257377</v>
+        <v>-2.374028534174831</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-4.049924481432468</v>
       </c>
       <c r="E11" t="n">
-        <v>-22.49696568209461</v>
+        <v>-23.74945101728835</v>
       </c>
       <c r="F11" t="n">
-        <v>1.023640567063249</v>
+        <v>-2.236657219228254</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.855035646466342</v>
+        <v>-2.068211376635567</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-4.085662095917782</v>
       </c>
       <c r="E12" t="n">
-        <v>-23.11137206406668</v>
+        <v>-24.40691977174421</v>
       </c>
       <c r="F12" t="n">
-        <v>1.250392705550764</v>
+        <v>-2.093521765185586</v>
       </c>
       <c r="G12" t="n">
-        <v>-5.431579205695371</v>
+        <v>-1.822636561710429</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-4.102423607653747</v>
       </c>
       <c r="E13" t="n">
-        <v>-23.97128481486775</v>
+        <v>-25.42551501842474</v>
       </c>
       <c r="F13" t="n">
-        <v>1.825491472312836</v>
+        <v>-1.843424618908551</v>
       </c>
       <c r="G13" t="n">
-        <v>-5.154269847197088</v>
+        <v>-1.464257691344963</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-4.085975876524645</v>
       </c>
       <c r="E14" t="n">
-        <v>-24.86148496320936</v>
+        <v>-26.11488943169408</v>
       </c>
       <c r="F14" t="n">
-        <v>2.070562719530682</v>
+        <v>-1.606302896856309</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.39698223953943</v>
+        <v>-0.7128955600100055</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-4.021916832064808</v>
       </c>
       <c r="E15" t="n">
-        <v>-25.6053571360242</v>
+        <v>-27.02676010297328</v>
       </c>
       <c r="F15" t="n">
-        <v>2.459801001240115</v>
+        <v>-1.128778929144126</v>
       </c>
       <c r="G15" t="n">
-        <v>-3.843722666451867</v>
+        <v>-0.1225333138094248</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-3.90794449824663</v>
       </c>
       <c r="E16" t="n">
-        <v>-26.31244442117238</v>
+        <v>-27.64357187632388</v>
       </c>
       <c r="F16" t="n">
-        <v>2.624770759950426</v>
+        <v>-0.9187471941414594</v>
       </c>
       <c r="G16" t="n">
-        <v>-3.501849083269105</v>
+        <v>0.3921031050295103</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-3.747324325319924</v>
       </c>
       <c r="E17" t="n">
-        <v>-27.35603471546001</v>
+        <v>-28.88365380109625</v>
       </c>
       <c r="F17" t="n">
-        <v>2.836782542734193</v>
+        <v>-0.8732256512036144</v>
       </c>
       <c r="G17" t="n">
-        <v>-3.09524504916839</v>
+        <v>0.6728934364170365</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-3.554149303575459</v>
       </c>
       <c r="E18" t="n">
-        <v>-28.01204899037296</v>
+        <v>-29.46797323480932</v>
       </c>
       <c r="F18" t="n">
-        <v>3.015299739472726</v>
+        <v>-0.741496250181458</v>
       </c>
       <c r="G18" t="n">
-        <v>-3.034782701245253</v>
+        <v>0.8438766735736529</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-3.346335815891281</v>
       </c>
       <c r="E19" t="n">
-        <v>-28.85217104137675</v>
+        <v>-30.26459779171818</v>
       </c>
       <c r="F19" t="n">
-        <v>3.424152716732222</v>
+        <v>-0.365272504751752</v>
       </c>
       <c r="G19" t="n">
-        <v>-2.513394563923108</v>
+        <v>1.711298938922304</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-3.147380354525112</v>
       </c>
       <c r="E20" t="n">
-        <v>-29.6368346429857</v>
+        <v>-31.04449950063875</v>
       </c>
       <c r="F20" t="n">
-        <v>3.715610861103356</v>
+        <v>-0.1562919062254726</v>
       </c>
       <c r="G20" t="n">
-        <v>-2.491345142953322</v>
+        <v>1.600734048627022</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-2.978336721059069</v>
       </c>
       <c r="E21" t="n">
-        <v>-30.30712726245347</v>
+        <v>-31.62213810646819</v>
       </c>
       <c r="F21" t="n">
-        <v>4.091047476427489</v>
+        <v>0.2725668871334398</v>
       </c>
       <c r="G21" t="n">
-        <v>-2.616821504192694</v>
+        <v>1.498773810417511</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-2.859810804708068</v>
       </c>
       <c r="E22" t="n">
-        <v>-30.72327463795841</v>
+        <v>-32.12417555461109</v>
       </c>
       <c r="F22" t="n">
-        <v>4.243036921906142</v>
+        <v>0.5031666740252171</v>
       </c>
       <c r="G22" t="n">
-        <v>-2.5933249371903</v>
+        <v>1.370559605332667</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-2.804800645641468</v>
       </c>
       <c r="E23" t="n">
-        <v>-31.1754099930107</v>
+        <v>-32.62224312917805</v>
       </c>
       <c r="F23" t="n">
-        <v>4.451323281457319</v>
+        <v>0.8138288373695937</v>
       </c>
       <c r="G23" t="n">
-        <v>-2.632544550276692</v>
+        <v>1.363103869860621</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-2.81992459379078</v>
       </c>
       <c r="E24" t="n">
-        <v>-31.47353185374144</v>
+        <v>-33.19856414765685</v>
       </c>
       <c r="F24" t="n">
-        <v>4.876344204425703</v>
+        <v>1.348823080802363</v>
       </c>
       <c r="G24" t="n">
-        <v>-2.647783584680866</v>
+        <v>1.253839455391939</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-2.902546955609807</v>
       </c>
       <c r="E25" t="n">
-        <v>-31.56692655192012</v>
+        <v>-33.26998764897561</v>
       </c>
       <c r="F25" t="n">
-        <v>4.950021537910112</v>
+        <v>1.500563186930802</v>
       </c>
       <c r="G25" t="n">
-        <v>-2.505093030263087</v>
+        <v>1.40109145321655</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-3.040448645782868</v>
       </c>
       <c r="E26" t="n">
-        <v>-31.5166137822527</v>
+        <v>-33.26509619760526</v>
       </c>
       <c r="F26" t="n">
-        <v>4.776090229612745</v>
+        <v>1.413509530658514</v>
       </c>
       <c r="G26" t="n">
-        <v>-2.710954442408274</v>
+        <v>1.062425058538485</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-3.216609299445373</v>
       </c>
       <c r="E27" t="n">
-        <v>-31.61186385853737</v>
+        <v>-33.3610894029337</v>
       </c>
       <c r="F27" t="n">
-        <v>4.907438288099282</v>
+        <v>1.668173009349247</v>
       </c>
       <c r="G27" t="n">
-        <v>-2.426859142378714</v>
+        <v>1.399321632730727</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-3.405493478722344</v>
       </c>
       <c r="E28" t="n">
-        <v>-31.40968386856296</v>
+        <v>-32.85780525803974</v>
       </c>
       <c r="F28" t="n">
-        <v>5.037490759766087</v>
+        <v>1.765038902403433</v>
       </c>
       <c r="G28" t="n">
-        <v>-2.735697706161731</v>
+        <v>1.075757380264562</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-3.582083696866282</v>
       </c>
       <c r="E29" t="n">
-        <v>-31.47980200504826</v>
+        <v>-33.29447423986855</v>
       </c>
       <c r="F29" t="n">
-        <v>4.746692631321985</v>
+        <v>1.627652920436256</v>
       </c>
       <c r="G29" t="n">
-        <v>-2.775406219934814</v>
+        <v>0.8063437678563469</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-3.718357997347607</v>
       </c>
       <c r="E30" t="n">
-        <v>-31.61356523292705</v>
+        <v>-33.04822963100264</v>
       </c>
       <c r="F30" t="n">
-        <v>4.614058764029449</v>
+        <v>1.609788489344549</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.028060316803245</v>
+        <v>0.3782965496373424</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-3.791638253538061</v>
       </c>
       <c r="E31" t="n">
-        <v>-31.24411765101489</v>
+        <v>-32.55867870639785</v>
       </c>
       <c r="F31" t="n">
-        <v>4.511409175851703</v>
+        <v>1.503775264442365</v>
       </c>
       <c r="G31" t="n">
-        <v>-2.883159931281619</v>
+        <v>0.9532535352002742</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-3.782973100513941</v>
       </c>
       <c r="E32" t="n">
-        <v>-31.12779595513382</v>
+        <v>-32.43008804778425</v>
       </c>
       <c r="F32" t="n">
-        <v>4.245427646264063</v>
+        <v>1.259315143082884</v>
       </c>
       <c r="G32" t="n">
-        <v>-3.219552937766569</v>
+        <v>0.532026481560616</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-3.683254372633224</v>
       </c>
       <c r="E33" t="n">
-        <v>-30.73174484235534</v>
+        <v>-32.05055688920908</v>
       </c>
       <c r="F33" t="n">
-        <v>4.379982893255296</v>
+        <v>1.500113398299046</v>
       </c>
       <c r="G33" t="n">
-        <v>-3.0481932470812</v>
+        <v>0.7299823696020024</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-3.493055571934204</v>
       </c>
       <c r="E34" t="n">
-        <v>-30.45844202498449</v>
+        <v>-31.66529337008245</v>
       </c>
       <c r="F34" t="n">
-        <v>4.090759025022342</v>
+        <v>1.036469321082033</v>
       </c>
       <c r="G34" t="n">
-        <v>-3.113735273139062</v>
+        <v>0.664816797072893</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-3.22335377505734</v>
       </c>
       <c r="E35" t="n">
-        <v>-29.7543125889908</v>
+        <v>-30.71687248346618</v>
       </c>
       <c r="F35" t="n">
-        <v>4.100537038756172</v>
+        <v>1.168902739093026</v>
       </c>
       <c r="G35" t="n">
-        <v>-3.186234355968544</v>
+        <v>0.6422051403134114</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-2.893489239263454</v>
       </c>
       <c r="E36" t="n">
-        <v>-29.73015600606137</v>
+        <v>-30.66756684921334</v>
       </c>
       <c r="F36" t="n">
-        <v>4.175871745568464</v>
+        <v>1.221992464660855</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.949640646657929</v>
+        <v>1.029272702973935</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-2.528828150092575</v>
       </c>
       <c r="E37" t="n">
-        <v>-29.28909180705921</v>
+        <v>-30.0693235239433</v>
       </c>
       <c r="F37" t="n">
-        <v>4.093364865682407</v>
+        <v>1.080005927231911</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.782969513557931</v>
+        <v>1.249419793184248</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-2.159484901328813</v>
       </c>
       <c r="E38" t="n">
-        <v>-28.61337727897603</v>
+        <v>-29.15420655210446</v>
       </c>
       <c r="F38" t="n">
-        <v>3.847511377365855</v>
+        <v>0.740630626558143</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.644517728093767</v>
+        <v>1.539132562103894</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-1.81501165167843</v>
       </c>
       <c r="E39" t="n">
-        <v>-28.18963483130334</v>
+        <v>-28.8360642082537</v>
       </c>
       <c r="F39" t="n">
-        <v>3.819868932540318</v>
+        <v>0.6851746216667268</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.642816353704081</v>
+        <v>1.591273820339542</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-1.52349836877706</v>
       </c>
       <c r="E40" t="n">
-        <v>-27.61700256850563</v>
+        <v>-27.85642701279219</v>
       </c>
       <c r="F40" t="n">
-        <v>3.869316347992296</v>
+        <v>0.8707075432592822</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.38163582885975</v>
+        <v>2.030834649730131</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-1.303280404078579</v>
       </c>
       <c r="E41" t="n">
-        <v>-27.3735691385882</v>
+        <v>-27.63469099535013</v>
       </c>
       <c r="F41" t="n">
-        <v>3.715488635931684</v>
+        <v>0.9255817563335356</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.524585500641476</v>
+        <v>1.999691675987883</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-1.167270578209791</v>
       </c>
       <c r="E42" t="n">
-        <v>-26.65716829535855</v>
+        <v>-26.63847273309947</v>
       </c>
       <c r="F42" t="n">
-        <v>3.448372856750919</v>
+        <v>0.4560366478281571</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.388343546281158</v>
+        <v>2.005861602653929</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-1.115920267223074</v>
       </c>
       <c r="E43" t="n">
-        <v>-26.33953929722882</v>
+        <v>-26.22802593960136</v>
       </c>
       <c r="F43" t="n">
-        <v>3.509157879127272</v>
+        <v>0.5876389346717736</v>
       </c>
       <c r="G43" t="n">
-        <v>-2.273877228506078</v>
+        <v>2.036945908313775</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-1.145459339370565</v>
       </c>
       <c r="E44" t="n">
-        <v>-25.67694686357644</v>
+        <v>-25.35815917081925</v>
       </c>
       <c r="F44" t="n">
-        <v>3.504699104864646</v>
+        <v>0.6112821718801743</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.260075562120777</v>
+        <v>2.13663275833017</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-1.243895490500481</v>
       </c>
       <c r="E45" t="n">
-        <v>-25.19292540573812</v>
+        <v>-24.93912239225597</v>
       </c>
       <c r="F45" t="n">
-        <v>3.569043324240114</v>
+        <v>0.6782517879431753</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.334652472868698</v>
+        <v>2.115243353287418</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-1.398434659926415</v>
       </c>
       <c r="E46" t="n">
-        <v>-24.70328159000286</v>
+        <v>-24.36375473011622</v>
       </c>
       <c r="F46" t="n">
-        <v>3.561744036987809</v>
+        <v>0.7470987826430716</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.387409745969577</v>
+        <v>1.927045922952394</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-1.592640541606042</v>
       </c>
       <c r="E47" t="n">
-        <v>-24.43488000201609</v>
+        <v>-24.08958411402649</v>
       </c>
       <c r="F47" t="n">
-        <v>3.654503164273787</v>
+        <v>0.7729811849965192</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.439018102456731</v>
+        <v>1.930658899027044</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-1.812678705631446</v>
       </c>
       <c r="E48" t="n">
-        <v>-24.1035471176384</v>
+        <v>-23.66444096588643</v>
       </c>
       <c r="F48" t="n">
-        <v>3.460253143437522</v>
+        <v>0.5494655690549017</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.592215132631511</v>
+        <v>2.008403886224725</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-2.043687428971709</v>
       </c>
       <c r="E49" t="n">
-        <v>-23.1806150683228</v>
+        <v>-22.41231741720085</v>
       </c>
       <c r="F49" t="n">
-        <v>3.683538976056395</v>
+        <v>0.7773812911767427</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.726609042396136</v>
+        <v>1.740994766631945</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-2.27705621571639</v>
       </c>
       <c r="E50" t="n">
-        <v>-22.93340243609724</v>
+        <v>-22.32853939552939</v>
       </c>
       <c r="F50" t="n">
-        <v>3.68286429310876</v>
+        <v>0.7908993951637626</v>
       </c>
       <c r="G50" t="n">
-        <v>-2.812044437395475</v>
+        <v>1.550690174337281</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-2.501912000535193</v>
       </c>
       <c r="E51" t="n">
-        <v>-22.44981121086322</v>
+        <v>-21.86167346278708</v>
       </c>
       <c r="F51" t="n">
-        <v>3.618133842190806</v>
+        <v>0.6460527887176735</v>
       </c>
       <c r="G51" t="n">
-        <v>-2.738337769869865</v>
+        <v>1.496539534279331</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-2.717354929418947</v>
       </c>
       <c r="E52" t="n">
-        <v>-21.81650392834366</v>
+        <v>-21.17512000647995</v>
       </c>
       <c r="F52" t="n">
-        <v>3.764740491108985</v>
+        <v>0.980514637490192</v>
       </c>
       <c r="G52" t="n">
-        <v>-2.836333023510308</v>
+        <v>1.418672321909976</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-2.922360675116312</v>
       </c>
       <c r="E53" t="n">
-        <v>-21.36272586698408</v>
+        <v>-20.62549296549451</v>
       </c>
       <c r="F53" t="n">
-        <v>3.896606784323415</v>
+        <v>0.9581229860397215</v>
       </c>
       <c r="G53" t="n">
-        <v>-2.854989473714455</v>
+        <v>1.2734248169008</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-3.124419482613896</v>
       </c>
       <c r="E54" t="n">
-        <v>-20.86155866206349</v>
+        <v>-19.9073271907859</v>
       </c>
       <c r="F54" t="n">
-        <v>3.992162423537267</v>
+        <v>1.320070831418036</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.747983780418288</v>
+        <v>1.489098465827886</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-3.327529700140325</v>
       </c>
       <c r="E55" t="n">
-        <v>-20.57427084054984</v>
+        <v>-19.49690973132899</v>
       </c>
       <c r="F55" t="n">
-        <v>3.852918618960663</v>
+        <v>1.062180608195139</v>
       </c>
       <c r="G55" t="n">
-        <v>-2.924198254922504</v>
+        <v>0.9940718535321471</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-3.53709642038762</v>
       </c>
       <c r="E56" t="n">
-        <v>-19.97177407930558</v>
+        <v>-18.80509081462619</v>
       </c>
       <c r="F56" t="n">
-        <v>3.899711303683906</v>
+        <v>1.274691069679331</v>
       </c>
       <c r="G56" t="n">
-        <v>-3.18411741599517</v>
+        <v>0.8228246100047172</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-3.752561623465644</v>
       </c>
       <c r="E57" t="n">
-        <v>-19.58631988891113</v>
+        <v>-18.30922818215621</v>
       </c>
       <c r="F57" t="n">
-        <v>3.723516385207158</v>
+        <v>1.159892299437301</v>
       </c>
       <c r="G57" t="n">
-        <v>-3.23768137522909</v>
+        <v>0.7611644553991859</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-3.971046645241974</v>
       </c>
       <c r="E58" t="n">
-        <v>-19.115039182968</v>
+        <v>-17.55330460741442</v>
       </c>
       <c r="F58" t="n">
-        <v>3.660399306555286</v>
+        <v>0.9795515031374097</v>
       </c>
       <c r="G58" t="n">
-        <v>-3.624509376553135</v>
+        <v>0.2887983899315974</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-4.18688224221227</v>
       </c>
       <c r="E59" t="n">
-        <v>-18.67779085382546</v>
+        <v>-16.88614095234147</v>
       </c>
       <c r="F59" t="n">
-        <v>3.79097490195685</v>
+        <v>1.085647841156331</v>
       </c>
       <c r="G59" t="n">
-        <v>-3.482185497650374</v>
+        <v>0.6318502237692855</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-4.392845499822989</v>
       </c>
       <c r="E60" t="n">
-        <v>-18.26205904390422</v>
+        <v>-16.31762278882227</v>
       </c>
       <c r="F60" t="n">
-        <v>3.648035008188858</v>
+        <v>0.9472009446990335</v>
       </c>
       <c r="G60" t="n">
-        <v>-3.990661767836996</v>
+        <v>0.04481739124507384</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-4.583033967628283</v>
       </c>
       <c r="E61" t="n">
-        <v>-17.83426116503543</v>
+        <v>-15.78071205469767</v>
       </c>
       <c r="F61" t="n">
-        <v>3.576274165396281</v>
+        <v>1.020076481057268</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.079436354526437</v>
+        <v>-0.1774368609248797</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-4.749765226274792</v>
       </c>
       <c r="E62" t="n">
-        <v>-17.73405608029114</v>
+        <v>-15.71722341152391</v>
       </c>
       <c r="F62" t="n">
-        <v>3.405911832111762</v>
+        <v>0.8112181077026611</v>
       </c>
       <c r="G62" t="n">
-        <v>-4.269256935141277</v>
+        <v>-0.507136817009023</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-4.889602272949139</v>
       </c>
       <c r="E63" t="n">
-        <v>-16.96481973985074</v>
+        <v>-14.84334276810407</v>
       </c>
       <c r="F63" t="n">
-        <v>3.495282877638968</v>
+        <v>0.8314292620904875</v>
       </c>
       <c r="G63" t="n">
-        <v>-4.11965332501368</v>
+        <v>-0.4163919605522147</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-4.996985546302778</v>
       </c>
       <c r="E64" t="n">
-        <v>-16.94115694661487</v>
+        <v>-14.65665115188405</v>
       </c>
       <c r="F64" t="n">
-        <v>3.152353268972953</v>
+        <v>0.4057092111401346</v>
       </c>
       <c r="G64" t="n">
-        <v>-4.243447867890833</v>
+        <v>-0.3238723946027162</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-5.073610615641194</v>
       </c>
       <c r="E65" t="n">
-        <v>-16.66276222859213</v>
+        <v>-14.21686542817759</v>
       </c>
       <c r="F65" t="n">
-        <v>3.408825680204444</v>
+        <v>0.7175056240776354</v>
       </c>
       <c r="G65" t="n">
-        <v>-4.213463588776044</v>
+        <v>-0.4480287239880213</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-5.119410681308686</v>
       </c>
       <c r="E66" t="n">
-        <v>-16.46738284716961</v>
+        <v>-14.12392051863067</v>
       </c>
       <c r="F66" t="n">
-        <v>3.422417119294467</v>
+        <v>0.8140879547335402</v>
       </c>
       <c r="G66" t="n">
-        <v>-4.327152554459284</v>
+        <v>-0.6583049093340333</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-5.140845173387823</v>
       </c>
       <c r="E67" t="n">
-        <v>-16.1409145246245</v>
+        <v>-13.63723455204988</v>
       </c>
       <c r="F67" t="n">
-        <v>3.051145937820946</v>
+        <v>0.2856792035505057</v>
       </c>
       <c r="G67" t="n">
-        <v>-4.364181892469298</v>
+        <v>-0.8156820403800255</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-5.142717181561026</v>
       </c>
       <c r="E68" t="n">
-        <v>-15.92858006738751</v>
+        <v>-13.50327087488955</v>
       </c>
       <c r="F68" t="n">
-        <v>3.043753759438171</v>
+        <v>0.2441324231954624</v>
       </c>
       <c r="G68" t="n">
-        <v>-4.445710970981971</v>
+        <v>-0.6959013721406092</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-5.131621974730908</v>
       </c>
       <c r="E69" t="n">
-        <v>-15.87902509378446</v>
+        <v>-13.40634142474609</v>
       </c>
       <c r="F69" t="n">
-        <v>3.117470204977514</v>
+        <v>0.3692078858717476</v>
       </c>
       <c r="G69" t="n">
-        <v>-4.303758656601096</v>
+        <v>-0.8148509092126499</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-5.113971504342906</v>
       </c>
       <c r="E70" t="n">
-        <v>-15.58980122555151</v>
+        <v>-13.32117492512443</v>
       </c>
       <c r="F70" t="n">
-        <v>2.884895259311503</v>
+        <v>0.08604149714690068</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.148889586077831</v>
+        <v>-0.5609256705588214</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-5.09299297784056</v>
       </c>
       <c r="E71" t="n">
-        <v>-15.66807911449768</v>
+        <v>-13.15297353287509</v>
       </c>
       <c r="F71" t="n">
-        <v>2.909095843302732</v>
+        <v>0.147872766992774</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.035792190225488</v>
+        <v>-0.5782718669226355</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-5.072963832287083</v>
       </c>
       <c r="E72" t="n">
-        <v>-15.68435461835764</v>
+        <v>-13.17190376746379</v>
       </c>
       <c r="F72" t="n">
-        <v>2.793871729463281</v>
+        <v>-0.1404221899354666</v>
       </c>
       <c r="G72" t="n">
-        <v>-3.894700341053189</v>
+        <v>-0.5690658669922347</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-5.052548535065621</v>
       </c>
       <c r="E73" t="n">
-        <v>-15.48669207072827</v>
+        <v>-13.0626393529951</v>
       </c>
       <c r="F73" t="n">
-        <v>2.609624616676724</v>
+        <v>-0.2578512458718968</v>
       </c>
       <c r="G73" t="n">
-        <v>-3.831069916680291</v>
+        <v>-0.278072178273457</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-5.031106374737598</v>
       </c>
       <c r="E74" t="n">
-        <v>-15.6959904547009</v>
+        <v>-13.57143829763494</v>
       </c>
       <c r="F74" t="n">
-        <v>2.513159622185625</v>
+        <v>-0.3487085494866441</v>
       </c>
       <c r="G74" t="n">
-        <v>-3.334625492393147</v>
+        <v>0.2539153259361592</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-5.003199183759917</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.81586890307766</v>
+        <v>-13.64235823124641</v>
       </c>
       <c r="F75" t="n">
-        <v>2.483747356874265</v>
+        <v>-0.5347205937521572</v>
       </c>
       <c r="G75" t="n">
-        <v>-3.210870061570928</v>
+        <v>0.461903456068455</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-4.964842955853919</v>
       </c>
       <c r="E76" t="n">
-        <v>-15.83341065971615</v>
+        <v>-13.64310624929705</v>
       </c>
       <c r="F76" t="n">
-        <v>2.449196745345777</v>
+        <v>-0.3154633027916225</v>
       </c>
       <c r="G76" t="n">
-        <v>-3.062469147132592</v>
+        <v>0.7285841136380646</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-4.909834719392309</v>
       </c>
       <c r="E77" t="n">
-        <v>-16.02496194876187</v>
+        <v>-13.99370670973725</v>
       </c>
       <c r="F77" t="n">
-        <v>2.318102915216319</v>
+        <v>-0.5582024937339497</v>
       </c>
       <c r="G77" t="n">
-        <v>-2.714626086565327</v>
+        <v>1.115348557872839</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-4.834463907898991</v>
       </c>
       <c r="E78" t="n">
-        <v>-16.40507245465078</v>
+        <v>-14.56928459917228</v>
       </c>
       <c r="F78" t="n">
-        <v>2.184266352234523</v>
+        <v>-0.7495386664775331</v>
       </c>
       <c r="G78" t="n">
-        <v>-2.38865644272064</v>
+        <v>1.497087103048425</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-4.734781343708475</v>
       </c>
       <c r="E79" t="n">
-        <v>-16.7533506368292</v>
+        <v>-15.15629298666216</v>
       </c>
       <c r="F79" t="n">
-        <v>2.243594450564536</v>
+        <v>-0.8254991661687906</v>
       </c>
       <c r="G79" t="n">
-        <v>-2.062779690006424</v>
+        <v>1.837865548692998</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-4.610075067613145</v>
       </c>
       <c r="E80" t="n">
-        <v>-17.04239361180808</v>
+        <v>-15.58288816984169</v>
       </c>
       <c r="F80" t="n">
-        <v>2.06585949492471</v>
+        <v>-0.9176569456101374</v>
       </c>
       <c r="G80" t="n">
-        <v>-1.82225521917481</v>
+        <v>2.159743093790077</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-4.461717215749367</v>
       </c>
       <c r="E81" t="n">
-        <v>-17.84868862429969</v>
+        <v>-16.44961130720837</v>
       </c>
       <c r="F81" t="n">
-        <v>1.981397012291887</v>
+        <v>-1.124026814469484</v>
       </c>
       <c r="G81" t="n">
-        <v>-1.461084725888335</v>
+        <v>2.672868809507136</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-4.292311837745795</v>
       </c>
       <c r="E82" t="n">
-        <v>-18.44529413226932</v>
+        <v>-17.13831103753008</v>
       </c>
       <c r="F82" t="n">
-        <v>1.746314006103149</v>
+        <v>-1.347219755957886</v>
       </c>
       <c r="G82" t="n">
-        <v>-1.225180366545955</v>
+        <v>2.811917053809064</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-4.108589014393642</v>
       </c>
       <c r="E83" t="n">
-        <v>-19.14071135802617</v>
+        <v>-17.99518282605993</v>
       </c>
       <c r="F83" t="n">
-        <v>1.608302231257007</v>
+        <v>-1.337119067770839</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.932451080389422</v>
+        <v>3.265484887873364</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-3.915793023570677</v>
       </c>
       <c r="E84" t="n">
-        <v>-20.22736158029415</v>
+        <v>-19.09254975138019</v>
       </c>
       <c r="F84" t="n">
-        <v>1.436761647317562</v>
+        <v>-1.433989849831892</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.4950609700477431</v>
+        <v>3.643923353413783</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-3.724869460738639</v>
       </c>
       <c r="E85" t="n">
-        <v>-20.92899273377885</v>
+        <v>-19.86686088094845</v>
       </c>
       <c r="F85" t="n">
-        <v>1.555280951785314</v>
+        <v>-1.508473869449341</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.3736571515285111</v>
+        <v>3.745815145527157</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-3.542479614150045</v>
       </c>
       <c r="E86" t="n">
-        <v>-21.82155427243718</v>
+        <v>-21.14269611293857</v>
       </c>
       <c r="F86" t="n">
-        <v>1.275918210402927</v>
+        <v>-1.836179110731783</v>
       </c>
       <c r="G86" t="n">
-        <v>0.05843327536943197</v>
+        <v>4.336353395974947</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-3.37990841814865</v>
       </c>
       <c r="E87" t="n">
-        <v>-22.59969349438223</v>
+        <v>-21.98362973908228</v>
       </c>
       <c r="F87" t="n">
-        <v>1.223454277714063</v>
+        <v>-1.738863429045841</v>
       </c>
       <c r="G87" t="n">
-        <v>0.1998673550224145</v>
+        <v>4.502535628388252</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-3.2431159359167</v>
       </c>
       <c r="E88" t="n">
-        <v>-23.67208248361942</v>
+        <v>-22.82463670032899</v>
       </c>
       <c r="F88" t="n">
-        <v>1.076407618177862</v>
+        <v>-1.874073802957241</v>
       </c>
       <c r="G88" t="n">
-        <v>0.4532890259689508</v>
+        <v>4.905844471860668</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-3.139323817136908</v>
       </c>
       <c r="E89" t="n">
-        <v>-24.89510177442627</v>
+        <v>-24.14385697925611</v>
       </c>
       <c r="F89" t="n">
-        <v>0.675680170331178</v>
+        <v>-2.234814063639428</v>
       </c>
       <c r="G89" t="n">
-        <v>0.5186501587727368</v>
+        <v>4.838620627440587</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-3.070732210050104</v>
       </c>
       <c r="E90" t="n">
-        <v>-26.3325382393954</v>
+        <v>-25.70128433975994</v>
       </c>
       <c r="F90" t="n">
-        <v>0.5195155129881808</v>
+        <v>-2.522830347176254</v>
       </c>
       <c r="G90" t="n">
-        <v>0.4567162197826582</v>
+        <v>4.693334010376476</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-3.041011950269319</v>
       </c>
       <c r="E91" t="n">
-        <v>-27.9499048240876</v>
+        <v>-27.04453408743796</v>
       </c>
       <c r="F91" t="n">
-        <v>0.2163139741227164</v>
+        <v>-2.704383617179141</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1823353763976575</v>
+        <v>4.404520818720342</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-3.049384840522306</v>
       </c>
       <c r="E92" t="n">
-        <v>-29.44835609475583</v>
+        <v>-28.59363058024056</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.0406228927611318</v>
+        <v>-2.808749246767174</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1861634687744519</v>
+        <v>4.119574831495938</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-3.09819504908972</v>
       </c>
       <c r="E93" t="n">
-        <v>-31.16107298037348</v>
+        <v>-30.25359263726076</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.381137332034891</v>
+        <v>-3.209755368005272</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.08607110059597316</v>
+        <v>3.983508881382828</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-3.185182983119909</v>
       </c>
       <c r="E94" t="n">
-        <v>-33.11109248129743</v>
+        <v>-32.16823039548886</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.7145187102898213</v>
+        <v>-3.457417788862582</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.170924703778149</v>
+        <v>3.681852268687309</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-3.311636913011761</v>
       </c>
       <c r="E95" t="n">
-        <v>-35.2054330204293</v>
+        <v>-34.26157357721986</v>
       </c>
       <c r="F95" t="n">
-        <v>-1.200603329025973</v>
+        <v>-3.720382801213337</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.4311616502971647</v>
+        <v>3.331061136979295</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-3.479500686718411</v>
       </c>
       <c r="E96" t="n">
-        <v>-37.08449347568686</v>
+        <v>-36.18742671720067</v>
       </c>
       <c r="F96" t="n">
-        <v>-1.4032966647214</v>
+        <v>-3.720524582412477</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.8886211338275295</v>
+        <v>2.630779349389865</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-3.685038367589849</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.95693421564661</v>
+        <v>-38.1072761567489</v>
       </c>
       <c r="F97" t="n">
-        <v>-1.812364758283041</v>
+        <v>-3.967717658610564</v>
       </c>
       <c r="G97" t="n">
-        <v>-1.315587881528946</v>
+        <v>2.092612140500468</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-3.938270747121737</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.09286309169188</v>
+        <v>-40.31664769394896</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.120895314633442</v>
+        <v>-4.220777543048949</v>
       </c>
       <c r="G98" t="n">
-        <v>-1.635661383092134</v>
+        <v>1.491753196556621</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-4.22316210158314</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.32714167437545</v>
+        <v>-42.39982418590022</v>
       </c>
       <c r="F99" t="n">
-        <v>-2.217018078643857</v>
+        <v>-4.064446659472476</v>
       </c>
       <c r="G99" t="n">
-        <v>-1.986080950278263</v>
+        <v>1.099219724218887</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-4.564149016247487</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.84547644503363</v>
+        <v>-44.92141747963521</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.801523294617874</v>
+        <v>-4.524687987910116</v>
       </c>
       <c r="G100" t="n">
-        <v>-2.367472375966297</v>
+        <v>0.5829259320520676</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-4.918270880638943</v>
       </c>
       <c r="E101" t="n">
-        <v>-47.85788578483802</v>
+        <v>-46.98470671390357</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.740699160186585</v>
+        <v>-4.400937446094765</v>
       </c>
       <c r="G101" t="n">
-        <v>-2.859692698320428</v>
+        <v>-0.0107950618660837</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-5.352585829342027</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.20838828326531</v>
+        <v>-49.27794060814355</v>
       </c>
       <c r="F102" t="n">
-        <v>-3.11912784771327</v>
+        <v>-4.390201187015019</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.308435082607083</v>
+        <v>-0.52427278607756</v>
       </c>
     </row>
   </sheetData>
